--- a/data/trans_camb/IP16A06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A06-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 4,86</t>
+          <t>-20,02; 4,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 0,0</t>
+          <t>-23,75; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 18,72</t>
+          <t>-3,08; 17,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 10,65</t>
+          <t>-5,52; 12,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 8,73</t>
+          <t>-7,03; 8,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 2,88</t>
+          <t>-8,97; 2,9</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,69; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,53</t>
+          <t>-4,3; 1,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 1,75</t>
+          <t>-4,59; 1,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,15</t>
+          <t>-4,74; 1,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 0,5</t>
+          <t>-5,32; 0,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,77</t>
+          <t>-3,37; 0,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,61</t>
+          <t>-3,66; 0,57</t>
         </is>
       </c>
     </row>
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 171,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 160,84</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,98</t>
+          <t>0,0; 7,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,04</t>
+          <t>0,0; 8,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,8</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,28</t>
+          <t>-3,68; 1,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,17</t>
+          <t>-3,73; 0,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 2,0</t>
+          <t>-2,46; 2,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,77</t>
+          <t>-3,83; 0,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,08</t>
+          <t>-2,28; 1,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,4</t>
+          <t>-2,83; 0,34</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-90,5; 197,89</t>
+          <t>-100,0; 170,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,15; 130,19</t>
+          <t>-76,4; 127,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-89,35; 70,84</t>
+          <t>-86,26; 64,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A06-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,64</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 16,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,61; 11,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,81; 5,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,3; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,21; 8,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,25; 2,96</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>207,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,46%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-1,12</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 4,3</t>
+          <t>-5,45; 0,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 0,0</t>
+          <t>-5,64; 0,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 17,16</t>
+          <t>-4,55; 1,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 12,68</t>
+          <t>-4,52; 1,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 8,39</t>
+          <t>-3,42; 0,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 2,9</t>
+          <t>-3,44; 0,44</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-59,92%</t>
+          <t>-60,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-72,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>207,56%</t>
+          <t>-49,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>-41,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>-54,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-57,46%</t>
+          <t>-56,66%</t>
         </is>
       </c>
     </row>
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 141,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 93,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>0,86</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 1,17</t>
+          <t>0,0; 8,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 0,52</t>
+          <t>0,0; 8,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,64</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 0,57</t>
+          <t>0,0; 3,85</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-49,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-60,46%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-72,37%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-54,18%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-56,66%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1052,14 +1052,14 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 160,84</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-0,99</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,94</t>
+          <t>-2,76; 2,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,47</t>
+          <t>-3,7; 0,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 1,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 1,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>-2,26; 1,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>-2,52; 0,53</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-3,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-56,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-24,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-50,66%</t>
         </is>
       </c>
     </row>
@@ -1193,197 +1193,40 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,35; 215,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 304,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,11; 117,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,59; 69,8</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-3,68; 1,23</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 0,87</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 2,27</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 0,69</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 1,11</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 0,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-37,62%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-43,78%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-3,31%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-56,94%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-24,02%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-50,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 170,89</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-76,4; 127,66</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-86,26; 64,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
